--- a/27.xlsx
+++ b/27.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GÉP\BusApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szilv\OneDrive\Asztali gép\BusApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>LindeID</t>
   </si>
@@ -279,13 +279,25 @@
   </si>
   <si>
     <t>Corina1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plecări Sapientia – zile lucrătoare  </t>
+  </si>
+  <si>
+    <t>Sosiri / Plecări Spitalul Județean – zile lucrătoare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plecări Sapientia – zile nelucrătoare </t>
+  </si>
+  <si>
+    <t>Sosiri / Plecări Spitalul Județean – zile nelucrătoare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +309,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -323,11 +366,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -608,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:AW71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +671,7 @@
     <col min="3" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +684,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -647,8 +701,113 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.28125</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.71875</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -658,8 +817,98 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60</v>
       </c>
@@ -672,8 +921,98 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>61</v>
       </c>
@@ -686,8 +1025,98 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>62</v>
       </c>
@@ -700,8 +1129,98 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>63</v>
       </c>
@@ -714,8 +1233,101 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -725,8 +1337,101 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -736,8 +1441,101 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="V9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="W9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="X9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -747,8 +1545,101 @@
       <c r="D10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>76</v>
+      </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -758,8 +1649,101 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>47</v>
+      </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -769,8 +1753,98 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="R12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="S12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="T12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="U12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="V12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="W12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="X12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>64</v>
       </c>
@@ -783,8 +1857,98 @@
       <c r="D13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="V13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="W13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="X13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>65</v>
       </c>
@@ -797,8 +1961,98 @@
       <c r="D14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>66</v>
       </c>
@@ -811,200 +2065,3572 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="E15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="E17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="V17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="W17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="X17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+    </row>
+    <row r="20" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="E21" s="4">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="E22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="E23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>71</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="E24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="E25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="V25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="W25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="X25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="E26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="N26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="O26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="P26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="S26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="T26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="U26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="V26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="W26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="X26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="E27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="E28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="J28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="K28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="L28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="N28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="O28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="P28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="S28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="T28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="U28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="V28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="W28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="X28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="E29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="E30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="E31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="E32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="E33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="V34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="W34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="X34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.36805555555555602</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.49305555555555602</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="N39" s="4">
+        <v>0.61805555555555602</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0.74305555555555602</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="S39" s="4">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0.86805555555555602</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0.90972222222222199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U40" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U41" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U42" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U43" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U44" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U45" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U46" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U47" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U48" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="J49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="K49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="L49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="M49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="N49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="O49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="P49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="R49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="S49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="T49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="U49" s="4">
+        <v>4.8611111111111112E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U50" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U51" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U52" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>67</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U54" s="9">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="57" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="P58" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0.84375</v>
+      </c>
+      <c r="T58" s="4">
+        <v>0.88541666666666696</v>
+      </c>
+      <c r="U58" s="4">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U59" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U60" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U61" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="H62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="K62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="O62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="P62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="T62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="U62" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="G63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="J63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="K63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="L63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="N63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="O63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="P63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="S63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="T63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="U63" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U64" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="G65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="H65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="J65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="K65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="L65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="M65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="N65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="O65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="P65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="R65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="S65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="T65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="U65" s="4">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U66" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U67" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U68" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U69" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U70" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="J71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="K71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="M71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="O71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="P71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="R71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="S71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="T71" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U71" s="4">
+        <v>2.7777777777777779E-3</v>
       </c>
     </row>
   </sheetData>
